--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ1NTQ1fQ.Hh-sxdPN8EeJQ1CAGteYMk8jUOPLyz492yBsaC_9GyJz-gC_KnSlJa-Lg-7r8wBlKHGGlsjGNYhjHl3fxnEJ5w"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ1NTQ1fQ.Hh-sxdPN8EeJQ1CAGteYMk8jUOPLyz492yBsaC_9GyJz-gC_KnSlJa-Lg-7r8wBlKHGGlsjGNYhjHl3fxnEJ5w"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ1NTQ1fQ.Hh-sxdPN8EeJQ1CAGteYMk8jUOPLyz492yBsaC_9GyJz-gC_KnSlJa-Lg-7r8wBlKHGGlsjGNYhjHl3fxnEJ5w"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ1NTQ1fQ.Hh-sxdPN8EeJQ1CAGteYMk8jUOPLyz492yBsaC_9GyJz-gC_KnSlJa-Lg-7r8wBlKHGGlsjGNYhjHl3fxnEJ5w"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ1NTQ1fQ.Hh-sxdPN8EeJQ1CAGteYMk8jUOPLyz492yBsaC_9GyJz-gC_KnSlJa-Lg-7r8wBlKHGGlsjGNYhjHl3fxnEJ5w"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ1NTQ1fQ.Hh-sxdPN8EeJQ1CAGteYMk8jUOPLyz492yBsaC_9GyJz-gC_KnSlJa-Lg-7r8wBlKHGGlsjGNYhjHl3fxnEJ5w"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -58,6 +58,14 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
@@ -88,7 +96,54 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -103,69 +158,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,8 +181,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -195,67 +195,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,115 +369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,45 +394,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,11 +424,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +477,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -494,10 +494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -506,133 +506,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,10 +1070,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1083,8 +1083,8 @@
     <col width="47.375" customWidth="1" style="3" min="3" max="3"/>
     <col width="21" customWidth="1" style="3" min="4" max="6"/>
     <col width="37.25" customWidth="1" style="3" min="7" max="7"/>
-    <col width="21" customWidth="1" style="3" min="8" max="10"/>
-    <col width="9" customWidth="1" style="3" min="11" max="16384"/>
+    <col width="21" customWidth="1" style="3" min="8" max="11"/>
+    <col width="9" customWidth="1" style="3" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="69" customHeight="1" s="1">
@@ -1130,6 +1130,11 @@
       </c>
       <c r="I1" s="3" t="inlineStr">
         <is>
+          <t>接口返回信息</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
           <t>测试员</t>
         </is>
       </c>
@@ -1157,7 +1162,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1170,8 +1175,8 @@
           <t>{"pageNum":"1",pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
-      <c r="M2" s="6" t="n"/>
       <c r="N2" s="6" t="n"/>
+      <c r="O2" s="6" t="n"/>
     </row>
     <row r="3" ht="69" customHeight="1" s="1">
       <c r="A3" s="3" t="inlineStr">
@@ -1196,7 +1201,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1209,8 +1214,8 @@
           <t>{"tartDate":"2020-12","endDate":"2020-12","merchantId":"","taxpayer":"","status":"0","type":"3""businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
-      <c r="M3" s="6" t="n"/>
       <c r="N3" s="6" t="n"/>
+      <c r="O3" s="6" t="n"/>
     </row>
     <row r="4" ht="69" customHeight="1" s="1">
       <c r="A4" s="3" t="inlineStr">
@@ -1235,7 +1240,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1272,7 +1277,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1309,7 +1314,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1346,7 +1351,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1381,6 +1386,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+        </is>
+      </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1392,11 +1402,108 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="69" customHeight="1" s="1"/>
-    <row r="10" ht="69" customHeight="1" s="1"/>
-    <row r="11" ht="69" customHeight="1" s="1"/>
-    <row r="12" ht="69" customHeight="1" s="1"/>
-    <row r="13" ht="69" customHeight="1" s="1"/>
+    <row r="9" ht="69" customHeight="1" s="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>ID_008</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>查看商户列表数据</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantPage</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>{"merchantName":"",
+"pageNum":"1",
+"pageSize":"15"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="69" customHeight="1" s="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>ID_009</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>查看商户详情信息</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>{"6735026743345618944"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="69" customHeight="1" s="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>ID_010</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="69" customHeight="1" s="1">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>ID_011</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="69" customHeight="1" s="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>ID_012</t>
+        </is>
+      </c>
+    </row>
     <row r="14" ht="69" customHeight="1" s="1"/>
     <row r="15" ht="69" customHeight="1" s="1"/>
     <row r="16" ht="69" customHeight="1" s="1"/>
@@ -1409,6 +1516,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxPaymentRecord/selectTaxPaymentRecordPage" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxPaymentRecord/selectTaxPaymentRecordPage" r:id="rId5"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxInvoice/selectListPage" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxInvoice/selectListPage" r:id="rId6"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxpayer/selectTaxpayerPage" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantPage" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1160,11 +1160,6 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
-        </is>
-      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1199,9 +1194,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1238,9 +1233,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1275,9 +1270,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1312,9 +1307,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1349,9 +1344,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1386,9 +1381,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1423,9 +1418,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1462,9 +1457,9 @@
           <t>get</t>
         </is>
       </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -1479,9 +1474,9 @@
           <t>ID_010</t>
         </is>
       </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
     </row>
@@ -1491,9 +1486,9 @@
           <t>ID_011</t>
         </is>
       </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNTQyNTk1fQ.YfYgX2CJo9ytssrEjTkqCTMxqO8HpQLbwYSbKli0O_pEL_xvF6ehV3dkalanoZUAYNNWwg0um_ABFv006mw0xQ"}</t>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
     </row>
@@ -1501,6 +1496,11 @@
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t>ID_012</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
         </is>
       </c>
     </row>

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -52,7 +52,128 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -64,127 +185,6 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -195,49 +195,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,133 +369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,41 +386,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,6 +400,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,8 +442,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,8 +466,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,10 +494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -506,133 +506,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,10 +1070,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1194,9 +1194,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1233,9 +1233,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1270,9 +1270,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1307,9 +1307,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1344,9 +1344,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1381,9 +1381,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1418,9 +1418,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1457,9 +1457,9 @@
           <t>get</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -1468,45 +1468,9 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="69" customHeight="1" s="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>ID_010</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="69" customHeight="1" s="1">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>ID_011</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="69" customHeight="1" s="1">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>ID_012</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="69" customHeight="1" s="1"/>
-    <row r="15" ht="69" customHeight="1" s="1"/>
-    <row r="16" ht="69" customHeight="1" s="1"/>
+    <row r="11" ht="69" customHeight="1" s="1"/>
+    <row r="12" ht="69" customHeight="1" s="1"/>
+    <row r="13" ht="69" customHeight="1" s="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/selectTaxRecordPage" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/selectTaxRecordPage" r:id="rId1"/>

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -52,6 +52,20 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -59,7 +73,54 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -81,30 +142,32 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,69 +185,6 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -195,13 +195,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,169 +363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,10 +389,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -413,17 +439,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,41 +486,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -494,10 +494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -506,16 +506,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -524,115 +524,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,10 +1070,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1083,8 +1083,8 @@
     <col width="47.375" customWidth="1" style="3" min="3" max="3"/>
     <col width="21" customWidth="1" style="3" min="4" max="6"/>
     <col width="37.25" customWidth="1" style="3" min="7" max="7"/>
-    <col width="21" customWidth="1" style="3" min="8" max="10"/>
-    <col width="9" customWidth="1" style="3" min="11" max="16384"/>
+    <col width="21" customWidth="1" style="3" min="8" max="11"/>
+    <col width="9" customWidth="1" style="3" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="69" customHeight="1" s="1">
@@ -1130,6 +1130,11 @@
       </c>
       <c r="I1" s="3" t="inlineStr">
         <is>
+          <t>接口返回信息</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
           <t>测试员</t>
         </is>
       </c>
@@ -1157,7 +1162,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1170,8 +1175,8 @@
           <t>{"pageNum":"1",pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
-      <c r="M2" s="6" t="n"/>
       <c r="N2" s="6" t="n"/>
+      <c r="O2" s="6" t="n"/>
     </row>
     <row r="3" ht="69" customHeight="1" s="1">
       <c r="A3" s="3" t="inlineStr">
@@ -1196,7 +1201,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1209,8 +1214,8 @@
           <t>{"tartDate":"2020-12","endDate":"2020-12","merchantId":"","taxpayer":"","status":"0","type":"3""businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
-      <c r="M3" s="6" t="n"/>
       <c r="N3" s="6" t="n"/>
+      <c r="O3" s="6" t="n"/>
     </row>
     <row r="4" ht="69" customHeight="1" s="1">
       <c r="A4" s="3" t="inlineStr">
@@ -1235,7 +1240,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1272,7 +1277,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1309,7 +1314,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1346,7 +1351,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNDQ4MDI3fQ.i_Seu7-fu_HDkBdgdCn-VWPR9fSwdmTTFCXnLaCEtrN4ODaizHIkqv8TDae9F117A7M0d26AhlxO0aqDmJ1Z8g"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1381,6 +1386,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+        </is>
+      </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1392,14 +1402,80 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="69" customHeight="1" s="1"/>
-    <row r="10" ht="69" customHeight="1" s="1"/>
+    <row r="9" ht="69" customHeight="1" s="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>ID_008</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>查看商户列表数据</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantPage</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>{"merchantName":"",
+"pageNum":"1",
+"pageSize":"15"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="69" customHeight="1" s="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>ID_009</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>查看商户详情信息</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>{"6735026743345618944"}</t>
+        </is>
+      </c>
+    </row>
     <row r="11" ht="69" customHeight="1" s="1"/>
     <row r="12" ht="69" customHeight="1" s="1"/>
     <row r="13" ht="69" customHeight="1" s="1"/>
-    <row r="14" ht="69" customHeight="1" s="1"/>
-    <row r="15" ht="69" customHeight="1" s="1"/>
-    <row r="16" ht="69" customHeight="1" s="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/selectTaxRecordPage" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/selectTaxRecordPage" r:id="rId1"/>
@@ -1409,6 +1485,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxPaymentRecord/selectTaxPaymentRecordPage" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxPaymentRecord/selectTaxPaymentRecordPage" r:id="rId5"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxInvoice/selectListPage" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxInvoice/selectListPage" r:id="rId6"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C8" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxpayer/selectTaxpayerPage" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantPage" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MiwibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRG1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgyIiwiZXhwIjoxNjIwNzg5NjMyfQ.7J-ph8yaljINcw-qB9Pc3RP8FvtS2HRrbW3t3Lt8OreAUF7_FmH-dTbh8U8Q-GKrSC90gdGLxgGCCCTY5XdhUA"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MiwibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRG1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgyIiwiZXhwIjoxNjIwNzg5NjMyfQ.7J-ph8yaljINcw-qB9Pc3RP8FvtS2HRrbW3t3Lt8OreAUF7_FmH-dTbh8U8Q-GKrSC90gdGLxgGCCCTY5XdhUA"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MiwibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRG1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgyIiwiZXhwIjoxNjIwNzg5NjMyfQ.7J-ph8yaljINcw-qB9Pc3RP8FvtS2HRrbW3t3Lt8OreAUF7_FmH-dTbh8U8Q-GKrSC90gdGLxgGCCCTY5XdhUA"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MiwibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRG1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgyIiwiZXhwIjoxNjIwNzg5NjMyfQ.7J-ph8yaljINcw-qB9Pc3RP8FvtS2HRrbW3t3Lt8OreAUF7_FmH-dTbh8U8Q-GKrSC90gdGLxgGCCCTY5XdhUA"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MiwibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRG1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgyIiwiZXhwIjoxNjIwNzg5NjMyfQ.7J-ph8yaljINcw-qB9Pc3RP8FvtS2HRrbW3t3Lt8OreAUF7_FmH-dTbh8U8Q-GKrSC90gdGLxgGCCCTY5XdhUA"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MiwibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRG1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgyIiwiZXhwIjoxNjIwNzg5NjMyfQ.7J-ph8yaljINcw-qB9Pc3RP8FvtS2HRrbW3t3Lt8OreAUF7_FmH-dTbh8U8Q-GKrSC90gdGLxgGCCCTY5XdhUA"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MiwibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRG1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgyIiwiZXhwIjoxNjIwNzg5NjMyfQ.7J-ph8yaljINcw-qB9Pc3RP8FvtS2HRrbW3t3Lt8OreAUF7_FmH-dTbh8U8Q-GKrSC90gdGLxgGCCCTY5XdhUA"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MiwibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRG1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgyIiwiZXhwIjoxNjIwNzg5NjMyfQ.7J-ph8yaljINcw-qB9Pc3RP8FvtS2HRrbW3t3Lt8OreAUF7_FmH-dTbh8U8Q-GKrSC90gdGLxgGCCCTY5XdhUA"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzg3MDIyfQ.8JXRiydLK-cv5AI7ntDUdDntgTeLBP8QIBPPM7TaFaFlCZQrzC_HRmdH8OY1rXyKS1JGRQ91Eo425fFs-C9qQg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MiwibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRG1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgyIiwiZXhwIjoxNjIwNzg5NjMyfQ.7J-ph8yaljINcw-qB9Pc3RP8FvtS2HRrbW3t3Lt8OreAUF7_FmH-dTbh8U8Q-GKrSC90gdGLxgGCCCTY5XdhUA"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -52,43 +52,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -97,6 +69,96 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -112,38 +174,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -154,37 +185,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -195,25 +195,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,157 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,6 +386,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -400,65 +420,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +447,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -494,10 +494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -506,133 +506,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1160,6 +1160,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzk2OTYyfQ.QlrfxKthnaJutzKBmz1nzhS5P9eenxQ8zmHkrGih7YxJeX6YRssCuZQwE9BzH4IIO6sRnFXxs8nUeGKrUIa1XQ"}</t>
+        </is>
+      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1167,7 +1172,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>{"pageNum":"1",pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
+          <t>{"pageNum":"1","pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>
@@ -1194,9 +1199,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzk2OTYyfQ.QlrfxKthnaJutzKBmz1nzhS5P9eenxQ8zmHkrGih7YxJeX6YRssCuZQwE9BzH4IIO6sRnFXxs8nUeGKrUIa1XQ"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1233,9 +1238,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzk2OTYyfQ.QlrfxKthnaJutzKBmz1nzhS5P9eenxQ8zmHkrGih7YxJeX6YRssCuZQwE9BzH4IIO6sRnFXxs8nUeGKrUIa1XQ"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1270,9 +1275,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzk2OTYyfQ.QlrfxKthnaJutzKBmz1nzhS5P9eenxQ8zmHkrGih7YxJeX6YRssCuZQwE9BzH4IIO6sRnFXxs8nUeGKrUIa1XQ"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1307,9 +1312,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzk2OTYyfQ.QlrfxKthnaJutzKBmz1nzhS5P9eenxQ8zmHkrGih7YxJeX6YRssCuZQwE9BzH4IIO6sRnFXxs8nUeGKrUIa1XQ"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1344,9 +1349,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzk2OTYyfQ.QlrfxKthnaJutzKBmz1nzhS5P9eenxQ8zmHkrGih7YxJeX6YRssCuZQwE9BzH4IIO6sRnFXxs8nUeGKrUIa1XQ"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1381,9 +1386,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzk2OTYyfQ.QlrfxKthnaJutzKBmz1nzhS5P9eenxQ8zmHkrGih7YxJeX6YRssCuZQwE9BzH4IIO6sRnFXxs8nUeGKrUIa1XQ"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1418,9 +1423,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzk2OTYyfQ.QlrfxKthnaJutzKBmz1nzhS5P9eenxQ8zmHkrGih7YxJeX6YRssCuZQwE9BzH4IIO6sRnFXxs8nUeGKrUIa1XQ"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1457,9 +1462,9 @@
           <t>get</t>
         </is>
       </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzE0NDA1fQ.E27HC_hVX0ubSy65GSNe_X4kwSbKlwQVwmAd1kF3pcfyEkD1_r4L1J0iYFKxQre23tXUFLBbB5CF-iLKjPSW5A"}</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzk2OTYyfQ.QlrfxKthnaJutzKBmz1nzhS5P9eenxQ8zmHkrGih7YxJeX6YRssCuZQwE9BzH4IIO6sRnFXxs8nUeGKrUIa1XQ"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -52,43 +52,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -97,6 +69,96 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -112,38 +174,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -154,37 +185,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -195,25 +195,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,157 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,6 +386,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -400,65 +420,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +447,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -494,10 +494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -506,133 +506,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1160,6 +1160,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
+        </is>
+      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1167,7 +1172,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>{"pageNum":"1",pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
+          <t>{"pageNum":"1","pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>
@@ -1196,7 +1201,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1235,7 +1240,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1272,7 +1277,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1309,7 +1314,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1346,7 +1351,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1383,7 +1388,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1420,7 +1425,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1459,7 +1464,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNzM1NTc2fQ.d54OxH41mSqo7U_AKXtOfPan_IhuIFir8I95EpBLNyEYXY84rhXAPh-YtQzxBwD2UCOXfAmqKh_voWJQZ32fRA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTY4OTgyfQ.wZyB-RQanW6fMHnj82lhOz6FnSvcvaqrSlk5M1bZtNvWYnPn5H6S0b7UOyJLkny7BDPCVaJBrpER6tRTvCCCaA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -58,6 +58,81 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -67,83 +142,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -152,21 +159,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -181,7 +173,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -195,187 +195,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,9 +391,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -413,28 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,30 +481,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -494,10 +494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -506,16 +506,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -524,115 +524,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,10 +1070,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1160,6 +1160,11 @@
           <t>POST</t>
         </is>
       </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDM0OTA4fQ.wTM_mSKZluUMhFbMplRThTCK4yfepGIxHEI5Fs80YiJJvu6wCnARQox0noWc5MiV2JXC_Pn7tcWQZ_m8ChShDQ"}</t>
+        </is>
+      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
           <t>application/x-www-form-urlencoded</t>
@@ -1167,7 +1172,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>{"pageNum":"1",pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
+          <t>{"pageNum":"1","pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
       <c r="N2" s="6" t="n"/>
@@ -1194,9 +1199,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDM0OTA4fQ.wTM_mSKZluUMhFbMplRThTCK4yfepGIxHEI5Fs80YiJJvu6wCnARQox0noWc5MiV2JXC_Pn7tcWQZ_m8ChShDQ"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1233,9 +1238,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDM0OTA4fQ.wTM_mSKZluUMhFbMplRThTCK4yfepGIxHEI5Fs80YiJJvu6wCnARQox0noWc5MiV2JXC_Pn7tcWQZ_m8ChShDQ"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1270,9 +1275,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDM0OTA4fQ.wTM_mSKZluUMhFbMplRThTCK4yfepGIxHEI5Fs80YiJJvu6wCnARQox0noWc5MiV2JXC_Pn7tcWQZ_m8ChShDQ"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1307,9 +1312,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDM0OTA4fQ.wTM_mSKZluUMhFbMplRThTCK4yfepGIxHEI5Fs80YiJJvu6wCnARQox0noWc5MiV2JXC_Pn7tcWQZ_m8ChShDQ"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1344,9 +1349,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDM0OTA4fQ.wTM_mSKZluUMhFbMplRThTCK4yfepGIxHEI5Fs80YiJJvu6wCnARQox0noWc5MiV2JXC_Pn7tcWQZ_m8ChShDQ"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1381,9 +1386,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDM0OTA4fQ.wTM_mSKZluUMhFbMplRThTCK4yfepGIxHEI5Fs80YiJJvu6wCnARQox0noWc5MiV2JXC_Pn7tcWQZ_m8ChShDQ"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1418,9 +1423,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDM0OTA4fQ.wTM_mSKZluUMhFbMplRThTCK4yfepGIxHEI5Fs80YiJJvu6wCnARQox0noWc5MiV2JXC_Pn7tcWQZ_m8ChShDQ"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1457,9 +1462,9 @@
           <t>get</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDM0OTA4fQ.wTM_mSKZluUMhFbMplRThTCK4yfepGIxHEI5Fs80YiJJvu6wCnARQox0noWc5MiV2JXC_Pn7tcWQZ_m8ChShDQ"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -1468,45 +1473,9 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="69" customHeight="1" s="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>ID_010</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="69" customHeight="1" s="1">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>ID_011</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="69" customHeight="1" s="1">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>ID_012</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwNjIxMTYwfQ.QhFmS3jxttq-bFNdwcKhyZTxLOXdBcOEzUCSeWOF68tpEi01ZmuqgnA7a9g-y3v1cUZaU5lGWpFb-e_2mzIqtQ"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="69" customHeight="1" s="1"/>
-    <row r="15" ht="69" customHeight="1" s="1"/>
-    <row r="16" ht="69" customHeight="1" s="1"/>
+    <row r="11" ht="69" customHeight="1" s="1"/>
+    <row r="12" ht="69" customHeight="1" s="1"/>
+    <row r="13" ht="69" customHeight="1" s="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/selectTaxRecordPage" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/selectTaxRecordPage" r:id="rId1"/>

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIwOTcyOTYzfQ.t-Veb9kc7HFcNG6lQU-zoUWAcfTEkpIyUuC70OWvT28ykaCJTmv6v8OAHxbr6zTHYMz2nrqkyYLQn2o9INrKfA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMDYxNzg0fQ.UbtUGGKQQqbDqJjU0hhXHCmHGo7zkVH9vbZfH4KzDjqYXqRLTMDXvpDMnYmYJSPeOyNOa-33nVR5nND8YrIsZg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjIwMzQwfQ.tl_Ow8IiwGBaJMLTzgznR07p8D9wElVof3opocSAQR9kWKUdnoFL6vRMxczQxt-l6inRywWg1DWwQnrwIch0Ng"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1160,9 +1160,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1199,9 +1199,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1238,9 +1238,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1275,9 +1275,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1312,9 +1312,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1349,9 +1349,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1386,9 +1386,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1423,9 +1423,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1462,9 +1462,9 @@
           <t>get</t>
         </is>
       </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMjMyMTk5fQ.ldIgobBkjbyrHyz3W_2lTKuePPiF0d6JfpqnjMGQ8aIofD5RtQO4sGhxu-b1sZ4ybU_qqC5wZOauEdBEv4rvKQ"}</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzEzNjExfQ.NwcBvfYCEo8Z-p_G1p0LSQC9Xtm_J1zwTDg2CMZdkWVLlAztrVohs4IJ5vU_0wShzn2qqnLbQWQ3A506gz-Keg"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -59,16 +59,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -82,23 +74,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -120,14 +97,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,7 +120,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +128,29 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -173,16 +165,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -195,187 +195,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,22 +389,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,8 +422,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,17 +458,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,10 +494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -506,16 +506,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -524,115 +524,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>{"tartDate":"2020-12","endDate":"2020-12","merchantId":"","taxpayer":"","status":"0","type":"3""businessNo":"","amountRangeJson":"[]"}</t>
+          <t>{"tartDate":"2020-12","endDate":"2020-12","merchantId":"","taxpayer":"","status":"0","type":"3","businessNo":"","amountRangeJson":"[]"}</t>
         </is>
       </c>
       <c r="N3" s="6" t="n"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxMzE2OTYxfQ.Ycm3m_CgSvEJvNxKBu0Ft-pEN3V47BZIPS1Kb1BQMprUa0dCU6EecZJtUHM4nd8NfGt1LitAd41UervL7AF6rA"}</t>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">

--- a/config/token.xlsx
+++ b/config/token.xlsx
@@ -1160,9 +1160,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNTczMjg4fQ.93UhbsgWr597gNCYZXFkRdUAlqidZqgqHt8LUqCxwddGOpVrzQbHsu3etagFVzRwSHw6gY6Q2x75Asvj_JrkSw"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1199,9 +1199,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNTczMjg4fQ.93UhbsgWr597gNCYZXFkRdUAlqidZqgqHt8LUqCxwddGOpVrzQbHsu3etagFVzRwSHw6gY6Q2x75Asvj_JrkSw"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1238,9 +1238,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNTczMjg4fQ.93UhbsgWr597gNCYZXFkRdUAlqidZqgqHt8LUqCxwddGOpVrzQbHsu3etagFVzRwSHw6gY6Q2x75Asvj_JrkSw"}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -1275,9 +1275,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNTczMjg4fQ.93UhbsgWr597gNCYZXFkRdUAlqidZqgqHt8LUqCxwddGOpVrzQbHsu3etagFVzRwSHw6gY6Q2x75Asvj_JrkSw"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1312,9 +1312,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNTczMjg4fQ.93UhbsgWr597gNCYZXFkRdUAlqidZqgqHt8LUqCxwddGOpVrzQbHsu3etagFVzRwSHw6gY6Q2x75Asvj_JrkSw"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -1349,9 +1349,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNTczMjg4fQ.93UhbsgWr597gNCYZXFkRdUAlqidZqgqHt8LUqCxwddGOpVrzQbHsu3etagFVzRwSHw6gY6Q2x75Asvj_JrkSw"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1386,9 +1386,9 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNTczMjg4fQ.93UhbsgWr597gNCYZXFkRdUAlqidZqgqHt8LUqCxwddGOpVrzQbHsu3etagFVzRwSHw6gY6Q2x75Asvj_JrkSw"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1423,9 +1423,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNTczMjg4fQ.93UhbsgWr597gNCYZXFkRdUAlqidZqgqHt8LUqCxwddGOpVrzQbHsu3etagFVzRwSHw6gY6Q2x75Asvj_JrkSw"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1462,9 +1462,9 @@
           <t>get</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNDY1NzczfQ.a2hmM5fkFgAg2HffP6twUYLtxU8w3bgRO_Jy8I4lz8DkY1sKNZ6plQefSE0CjndXfaaBYto9Qh29C7ubgVOzow"}</t>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>{"Authorization":"eyJhbGciOiJIUzUxMiJ9.eyJkYXRhIjp7ImZkZFRlbXBsYXRlSWQiOiJYWUZERDY3NzYwMzI2NTc1MzEyMzYzNTIiLCJpc1VwZGF0ZVB3ZCI6MCwibG9naW5UeXBlIjowLCJ1c2VyTG9naW5JZCI6NjU5Mzc0NjkwMTM1MzA4Mjg4MywibWVyY2hhbnRJZCI6IiIsInRhc2tVcmwiOiJodHRwczovL2Nkbi5sYXN0bWlsZXMuY24vYXBwcy82NzIyODEyMjM3NzQzNTk5NjE2LnBkZiIsInN5c05hbWUiOiLns7vnu5_mk43kvZzmiYvlhowtVjEuMCIsImlzTWFuYWdlciI6MSwiaXNBc3luY1JlcXVlc3QiOiJ0cnVlIiwic3lzVXJsIjoiaHR0cHM6Ly9jZG4ubGFzdG1pbGVzLmNuL2FwcHMvNjcyMjgxMTU2OTM5ODAzNDQzMi5wZGYiLCJ0YXNrTmFtZSI6IuWFheWAvOS7o-WPkeaTjeS9nOaJi-WGjC1WMS4wIiwibWVyY2hhbnRSYW5nZSI6MSwidXNlcm5hbWUiOiJBRE1pbiJ9LCJzdWIiOiI2NTkzNzQ2OTAxMzUzMDgyODgzIiwiZXhwIjoxNjIxNTczMjg4fQ.93UhbsgWr597gNCYZXFkRdUAlqidZqgqHt8LUqCxwddGOpVrzQbHsu3etagFVzRwSHw6gY6Q2x75Asvj_JrkSw"}</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
